--- a/Presentations/Decision Tree Interpretation.xlsx
+++ b/Presentations/Decision Tree Interpretation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahini244525\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1442ED7-21F4-486B-B144-D3B590B74798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD46201-3BDA-4E3D-946B-69492BC5D4B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="1" xr2:uid="{DC01CFE7-D202-4ADC-B2CA-B79DFF50952A}"/>
   </bookViews>
@@ -44884,7 +44884,7 @@
         <v>0.8</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" ref="F7:F14" si="16">AVERAGEIFS($E$5:$E$14,$D$5:$D$14,"&gt;="&amp;$F$4)</f>
+        <f t="shared" ref="F8:F14" si="16">AVERAGEIFS($E$5:$E$14,$D$5:$D$14,"&gt;="&amp;$F$4)</f>
         <v>0.46666666666666656</v>
       </c>
       <c r="G8" s="18">
